--- a/Listen&Read/雅思听力.xlsx
+++ b/Listen&Read/雅思听力.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/个人数据/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chukexin1/GitHub/work-life-balance/Listen&amp;Read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056D36B7-80AE-AE4F-A633-93FADAB8E552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F016897E-1653-3640-9DB7-E3EEA67C6C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{FE455072-4836-B640-8311-D30BEC0AA2FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{FE455072-4836-B640-8311-D30BEC0AA2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="剑8" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1087">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20558,12 +20558,1171 @@
     <t xml:space="preserve"> not realized ... Before = surprised</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>area for coffee and an 3____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MAN: Fine. And we'll also need some sort of open area where people can sit and have a cup of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>coffee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we'd like to have an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>exhibition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of our products and services there as well, so that'll need to be quite a big space.
+ANGELA: That's fine,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other facilities
+The hotel also has a spa and rooftop 7____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ANGELA: Sure. And of course, guests can also make use of all the other facilities at the hotel. So we've got a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>spa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> where you can get massages and facials and so on, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> there's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>a pool up on the roof</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the use of guests.
+MAN:Great.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up on the roof = rooftop  楼顶的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location
+Wilby Street (quite near the sea)		
+near to restaurants and many 10____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单复数，注意看题，都提示了many了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ANGELA: Well, it's downtown on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Wilby Street</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, that's quite a small street, and it's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>not very far from the sea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. And of course if the conference attendees want to go out on the Saturday evening there's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>a huge choice of places to eat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Then if they want to make a night of it, they can go on to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> one of the clubs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the area there are a great many to choose from.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the customer services manager 客服经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complimentary  = free  免费的 (还有赞美的意思)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-14 Which TWO ways that volunteers can benefit from volunteering are mentioned?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. learning how to be a part of a team
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>B. having a sense of purpose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. realizing how lucky they are
+D. improved ability at time management
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>E. boosting their employment prospects</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The benefit from volunteering isn't only for the people being helped. Volunteers also gain from it: they're using their skills, to cope with somebody's mental or physical ill health, and volunteering may be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>a valuable element of their CV when they're applying for jobs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> employers usually look favourably on someone who's given up time to help others. Significantly, most </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>volunteers feel that what they're doing gives them a purpose in their lives.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> And in my opinion, they're lucky in that respect, as many people don't have that feeling.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E和B都在文中提到了； 后面的in my opinion, they're lucky in that respect 干扰了我选择C项，但是结合上下文，这是修饰答案B的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Volunteers
+15 __F__ Habib            
+16 __A__ Consuela            
+17 __E__ Minh  
+18 __G__ Tanya            
+19 __D__ Alexei            
+20 __C__ Juba      </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意标记关键词；这样才能在听到同义词时第一时间选中答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. overcome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>physical difficulties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. rediscover </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>not used for a long time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. improve their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>communication skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+D. solve problems </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>independently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>escape isolation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+F. remember </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>past times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+G. start a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>new hobby</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Habib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> supports an elderly lady ... ... ... ... . The songs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>take the listeners back to their youth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and for a little while they can forget the difficulties that they face now.
+Our volunteer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Consuela</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an amazing woman. She </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>has difficulty walking herself,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ... ... ... . By using herself as an example, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Consuela encourages them to walk more and more.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Minh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> visits a young man who </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>lives alone and can't leave his home on his own</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so he hardly ever saw anyone. But together they go out to the cinema, or to see friends the young man hadn't been able to visit for a long time.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Tanya</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> visits an elderly woman once a week. When the woman found out that Tanya is a professional dressmaker, she got interested. Tanya showed her some soft toys she'd made, and the woman decided to try it herself. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>And now she really enjoys it, and spends hours making toys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They're not perhaps up to Tanya's standard yet, but she gains a lot of pleasure from doing it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Alexei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is ... ... ... , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>he's helping them to realise that they aren't helpless, and that they can do something themselves</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to improve their situation. 
+And the last volunteer I'll mention, though there are plenty more, is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>Juba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. She volunteers with a teenage girl with learning difficulties, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>who wasn't very good at talking to other people.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Juba's worked very patiently with her, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>now the girl is far better at expressing herself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and at understanding other people.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is due to play in a 22____ band competition.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has been invited to play in the town's 23____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They have listened to a talk by a 24____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joe hopes the band will attend a 26____ next month.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Band members
+27____ flautist       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JOE: They aren't really good </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>enough to enter national band competitions, but they're in a regional one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> later in the term. Even if they don't win, and I don't expect them to, hopefully it'll be an incentive for them to try and improve.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发音问题；将enter national 听成了international； 结合后面的but，这里应该填 regional.   原因：他们还不够好去参加全国性的比赛，但是他们呢将要参加地区性的比赛了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carnival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JOE: Well, now </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>the town council's organising a carnival</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the summer, and the band has been asked to perform. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个单词： council  (委员会)    +     carnival  (狂欢节)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JOE: I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>played a recording</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I came across, of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>a drummer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> talking about how playing in a band had changed his life.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">drummer  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词： drummer  鼓手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JOE: That's what l've got in mind. I'm hoping I can take some of the band to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>a parade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that's going to take place next month.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词：parade  游行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JOE: There's a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>flautist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> who says she loves playing in the band.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> We rehearse twice a week after school</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> but she's hardly ever there</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Then she looks for me the next day and gives me a very plausible reason - she says she had to help her mother, or she's been ill, but to be honest, I don't believe her.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词：rehearse 排练  =  rehearsal
+这一题容易填错为E：has a health problem, 但是结束是 I don't believe it. 而且在后面选项E被明确使用了，所以这里应该填D. miss = hardly ever there</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. makes a lot of mistakes in rehearsals
+B. keeps making unhelpful suggestions
+C. has difficulty with rhythm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>. misses too many rehearsals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E. has a health problem
+F. doesn't mix with other students</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compositions show a great deal of 32____ and are drawn from various cultural sources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liza Lim's compositions are vibrant and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>full of energy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and she often explores Asian and Australian Aboriginal cultural </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>sources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这里填成了energetic；   a great deal of = full of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disturbing  引起烦恼的，令人不安的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Tower of Remoteness is performed by piano and 36____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>The Tower of Remoteness is scored for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> piano and clarinet.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clarinet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词：clarinet 单簧管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olympics
+diversity  多样性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -20852,6 +22011,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线 (正文)"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -20905,7 +22074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -21022,6 +22191,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21323,8 +22495,8 @@
       <xdr:rowOff>1266076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>177799</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>215899</xdr:rowOff>
     </xdr:to>
@@ -22278,15 +23450,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="68">
       <c r="A3" s="1" t="s">
@@ -22355,17 +23527,17 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7" ht="119">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="102">
       <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
@@ -22442,15 +23614,15 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" ht="136">
       <c r="A14" s="1" t="s">
@@ -22477,18 +23649,18 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="1:7" ht="85">
-      <c r="A17" s="40" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" ht="68">
+      <c r="A17" s="41" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -22507,7 +23679,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="68">
-      <c r="A18" s="40"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="1" t="s">
         <v>164</v>
       </c>
@@ -22524,7 +23696,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="136">
-      <c r="A19" s="40"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="1" t="s">
         <v>167</v>
       </c>
@@ -22541,7 +23713,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="68">
-      <c r="A20" s="40"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="1" t="s">
         <v>172</v>
       </c>
@@ -22558,7 +23730,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="51">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="1" t="s">
         <v>158</v>
       </c>
@@ -22575,7 +23747,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="85">
-      <c r="A22" s="40"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="1" t="s">
         <v>159</v>
       </c>
@@ -22683,12 +23855,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="1" t="s">
@@ -22705,7 +23877,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
-      <c r="A3" s="40">
+      <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -22715,7 +23887,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="17">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
@@ -22723,7 +23895,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
@@ -22731,7 +23903,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -22739,7 +23911,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -22747,7 +23919,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -22755,7 +23927,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="34">
-      <c r="A9" s="40"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -22822,14 +23994,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="34">
       <c r="A4" s="2" t="s">
@@ -22869,67 +24041,67 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="65" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:6" ht="54" customHeight="1">
-      <c r="A9" s="40"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:6" ht="53" customHeight="1">
-      <c r="A12" s="40"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:6" ht="51">
       <c r="A13" s="8" t="s">
@@ -23014,7 +24186,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="58" customHeight="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -23023,49 +24195,49 @@
       <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="70">
-      <c r="A20" s="40"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="17">
-      <c r="A21" s="40"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:5" ht="51">
-      <c r="A22" s="40"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:5" ht="68">
-      <c r="A23" s="40"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="85">
       <c r="A24" s="2" t="s">
@@ -23181,7 +24353,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="85">
+    <row r="32" spans="1:5" ht="68">
       <c r="A32" s="2" t="s">
         <v>139</v>
       </c>
@@ -23252,14 +24424,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="41" spans="1:6" ht="85">
       <c r="A41" s="1" t="s">
@@ -23365,14 +24537,14 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" ht="51">
       <c r="A51" s="1" t="s">
@@ -23402,7 +24574,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="204">
+    <row r="53" spans="1:6" ht="187">
       <c r="A53" s="1" t="s">
         <v>279</v>
       </c>
@@ -23422,7 +24594,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="136">
+    <row r="54" spans="1:6" ht="119">
       <c r="A54" s="1" t="s">
         <v>282</v>
       </c>
@@ -23439,7 +24611,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="372">
+    <row r="55" spans="1:6" ht="356">
       <c r="A55" s="1" t="s">
         <v>287</v>
       </c>
@@ -23481,7 +24653,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="85">
+    <row r="58" spans="1:6" ht="68">
       <c r="A58" s="1" t="s">
         <v>301</v>
       </c>
@@ -23591,14 +24763,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="51">
       <c r="A2" s="1" t="s">
@@ -23750,14 +24922,14 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" ht="68">
       <c r="A14" s="1" t="s">
@@ -23872,7 +25044,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="372">
+    <row r="22" spans="1:6" ht="356">
       <c r="A22" s="1" t="s">
         <v>393</v>
       </c>
@@ -23969,14 +25141,14 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" ht="51">
       <c r="A31" s="1" t="s">
@@ -24048,7 +25220,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="153">
+    <row r="36" spans="1:4" ht="136">
       <c r="A36" s="1" t="s">
         <v>435</v>
       </c>
@@ -24072,7 +25244,7 @@
       <c r="C37" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="43" t="s">
         <v>454</v>
       </c>
     </row>
@@ -24086,7 +25258,7 @@
       <c r="C38" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D38" s="43"/>
+      <c r="D38" s="44"/>
     </row>
     <row r="39" spans="1:4" ht="51">
       <c r="A39" s="1" t="s">
@@ -24098,7 +25270,7 @@
       <c r="C39" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:4" ht="102">
       <c r="A40" s="1" t="s">
@@ -24110,7 +25282,7 @@
       <c r="C40" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D40" s="43"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:4" ht="85">
       <c r="A41" s="1" t="s">
@@ -24122,7 +25294,7 @@
       <c r="C41" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D41" s="43"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" spans="1:4" ht="113" customHeight="1">
       <c r="A42" s="1" t="s">
@@ -24134,7 +25306,7 @@
       <c r="C42" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="43"/>
+      <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:4" ht="153">
       <c r="A43" s="1" t="s">
@@ -24253,30 +25425,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97061126-B3C2-8648-A26F-0D8FB5091FC0}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="34">
       <c r="A2" s="1" t="s">
@@ -24418,7 +25591,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="119">
+    <row r="12" spans="1:6" ht="102">
       <c r="A12" s="1" t="s">
         <v>503</v>
       </c>
@@ -24475,14 +25648,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" ht="34">
       <c r="A18" s="1" t="s">
@@ -24612,31 +25785,211 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" customHeight="1">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="32" spans="1:6" ht="68">
+      <c r="A32" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="68">
+      <c r="A33" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="68">
+      <c r="A34" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="136">
+      <c r="A35" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="39" customFormat="1" ht="306">
+      <c r="A36" s="39" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="39" customFormat="1" ht="51">
       <c r="A37" s="39" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="39" customFormat="1" ht="34">
+      <c r="A38" s="39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="39" customFormat="1" ht="34">
+      <c r="A39" s="39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="39" customFormat="1" ht="34">
+      <c r="A40" s="39" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="39" customFormat="1" ht="136">
+      <c r="A41" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="39" customFormat="1" ht="51">
+      <c r="A42" s="39" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="39" customFormat="1" ht="34">
+      <c r="A43" s="39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" customHeight="1">
+      <c r="A45" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24662,14 +26015,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="34">
       <c r="A2" s="1" t="s">
@@ -24727,7 +26080,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="68">
+    <row r="6" spans="1:10" ht="51">
       <c r="A6" s="1" t="s">
         <v>537</v>
       </c>
@@ -24929,14 +26282,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="153">
       <c r="A2" s="1" t="s">
@@ -24994,7 +26347,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="136">
+    <row r="6" spans="1:6" ht="119">
       <c r="A6" s="1" t="s">
         <v>582</v>
       </c>
@@ -25008,7 +26361,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="102">
+    <row r="7" spans="1:6" ht="85">
       <c r="A7" s="1" t="s">
         <v>586</v>
       </c>
@@ -25198,14 +26551,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="40" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="51">
       <c r="A24" s="1" t="s">
@@ -25321,7 +26674,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="119">
+    <row r="33" spans="1:6" ht="102">
       <c r="A33" s="1" t="s">
         <v>672</v>
       </c>
@@ -25349,7 +26702,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="170">
+    <row r="35" spans="1:6" ht="153">
       <c r="A35" s="1" t="s">
         <v>681</v>
       </c>
@@ -25448,14 +26801,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>755</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" ht="68">
       <c r="A44" s="1" t="s">
@@ -25468,7 +26821,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="204">
+    <row r="45" spans="1:6" ht="187">
       <c r="A45" s="1" t="s">
         <v>711</v>
       </c>
@@ -25518,7 +26871,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="68">
+    <row r="49" spans="1:6" ht="51">
       <c r="A49" s="1" t="s">
         <v>725</v>
       </c>
@@ -25620,14 +26973,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" ht="51">
       <c r="A58" s="1" t="s">
@@ -25714,7 +27067,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="34">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="41" t="s">
         <v>782</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -25723,36 +27076,36 @@
       <c r="D64"/>
     </row>
     <row r="65" spans="1:4" ht="17">
-      <c r="A65" s="40"/>
+      <c r="A65" s="41"/>
       <c r="C65" s="1" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="51">
-      <c r="A66" s="40"/>
+      <c r="A66" s="41"/>
       <c r="C66" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="51">
-      <c r="A67" s="40"/>
+      <c r="A67" s="41"/>
       <c r="C67" s="1" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="34">
-      <c r="A68" s="40"/>
+      <c r="A68" s="41"/>
       <c r="C68" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="51">
-      <c r="A69" s="40"/>
+      <c r="A69" s="41"/>
       <c r="C69" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="68">
+    <row r="70" spans="1:4" ht="51">
       <c r="A70" s="1" t="s">
         <v>788</v>
       </c>
@@ -25868,14 +27221,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="85">
       <c r="A2" s="26" t="s">
@@ -26170,14 +27523,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>875</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6" ht="85">
       <c r="A22" s="1" t="s">
@@ -26460,14 +27813,14 @@
       <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="42" t="s">
         <v>952</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
@@ -26661,24 +28014,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>875</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>

--- a/Listen&Read/雅思听力.xlsx
+++ b/Listen&Read/雅思听力.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chukexin1/GitHub/work-life-balance/Listen&amp;Read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F016897E-1653-3640-9DB7-E3EEA67C6C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05522AC-AC4E-7343-9D09-DEB1BCFF0BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{FE455072-4836-B640-8311-D30BEC0AA2FB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{FE455072-4836-B640-8311-D30BEC0AA2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="剑8" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="1149">
   <si>
     <t>题号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21717,12 +21717,1076 @@
 diversity  多样性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>flute 长笛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prize: tickets for 4____ held at the end of the festival. Ducks can be bought in the 5____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:  concert
+5:  market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MELANIE: And are there any </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>prizes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?
+ROB: Yes, the first duck in each race to arrive at the finishing line wins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> its owner free tickets for the concert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">on the last night of the festival.
+MELANIE: You said you can buy a duck? I'm sure my children will both want one.
+ROB: They're on sale </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">at a stall in the market. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You can't miss it - it's got an enormous sign showing a couple of ducks.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concert 音乐会； 我这里写成了 free ；注意介词 for；
+a stall in the market; 我将stall 听成了store；注意介词in   (介词是不会变的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20th- and 21st-century paintings  11____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19th-century paintings  12____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Procelain and glass  16____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E. includes the most popular exhibits in the museum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速翻译选项关键词并记住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we have a fine collection of twentieth and twenty-first century paintings, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>many by very well-known artists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. I'm sure you'll recognise several of the paintings. This is the gallery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>that attracts the largest number of visitors,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提到了artists 但跟选项中的 given by artists 对不上； 后面吸引了最多的人 = most popular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. includes some items given by the artists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Then there are the nineteenth-century paintings. The museum was opened in the middle of that century, and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> several of the artists each donated one work </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- to get the museum started, as it were.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>donated = given</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A. was given by one person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>All our porcelain and glass was left to the museum by its founder,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when he died in 1878. And in the terms of his will, we're not allowed to add anything to that collection: he believed it was perfect in itself, and we don't see any reason to disagree!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. café</t>
+  </si>
+  <si>
+    <t>19. baby-changing facilities</t>
+  </si>
+  <si>
+    <t>20. cloakroom</t>
+  </si>
+  <si>
+    <t>17. restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To reach it, when you </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>get to the bottom of the stairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, go straight ahead to the far side of the sitting area, then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">turn right into the corridor. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">You'll see the door of the restaurant </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>facing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> you.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cross the sitting area, continue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>straight ahead along the corridor on the left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and you and your baby will find the facilities on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-hand side.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When you reach the bottom of the stairs, you'll need to go straight ahead, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>turn right into the corridor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and the café is immediately on the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">is on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>the left hand side of the sitting area.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> It's through </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>the last door</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> before you come to the corridor.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn right 注意听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some CO2 moves from the 34____ of plants to microbes in the soil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单复数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>While a proportion of these carbon products remain in the plant, some t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>ransfer from the roots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fungi and soil </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>microbes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which store the carbon in the soil.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uses established practices to make sure soil remains fertile and 35____</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep = remain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This aims to boost the fertility of soil and keep it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t>moist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through established practices.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moist  (潮湿的)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taking place on a big 37____ farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词不会: cattle 牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> on a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve"> large cattle farm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the state.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giving farmers 40____ for carbon storage, as well as their produce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payment 开销 / pavement 人行道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rattan Lal argues that farmers should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+      </rPr>
+      <t xml:space="preserve">receive payment </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not just for the corn or beef they produce, but also for the carbon they can store in their soil.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-22 Which TWO characteristics were shared by the subjects of Joanna's psychology study?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JOANNA: Well, I had six subjects, all professional musicians, and all female. Three were </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">violinists </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>and there was also a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cello player and a pianist and a flute player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. They were all very highly regarded in the music world and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> they'd done quite extensive tours in different continents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>quite a few had won prizes and competitions as well.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+SUPERVISOR: And they were quite young, weren't they?
+JOANNA: Yes, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>between 25 and 29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - the mean was 27. 8. I wasn't specifically looking for artists who'd produced </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>recordings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, but this is something that's just taken for granted these days,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and they all had.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-24 Which TWO points does Joanna make about her use of telephone interviews?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. They had all won prizes for their music.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B. They had all made music recordings.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+C. They were all under 27 years old.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D. They had all toured internationally.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+E. They all played a string instrument.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A. It meant rich data could be collected.
+B. It allowed the involvement of top performers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C. It led to a stressful atmosphere at times.
+D. It meant interview times had to be limited.
+E. It caused some technical problems.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUPERVISOR: Now you collected your data through telephone interviews, didn't you?
+JOANNA: Yes. I realised if I was going to interview leading musicians </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>it'd only be possible over the phone because they're so busy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I recorded them using a telephone recording adaptor. I'd been worried about the quality, but it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>worked out all right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. I managed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>at least</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> a 30-minute interview with each subject, sometimes longer.
+SUPERVISOR: Did doing it on the phone make it more stressful?
+JOANNA: I'd thought it might ...it was all quite informal though and in fact they</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> seemed very keen to talk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. An</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>d I don't think using the phone meant I got less rich data, rather the opposite in fact.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACE都是错的，所以选BD  (这里听错了: won prizes ，注意是quite a few, 而不是all)   以及要注意but后面的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB是对的； 我错选了D，因为听到了30-minute, 但是没留意到前后: at least 和 sometimes longer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28 Mike Frost's article suggests that in popular music, women's dress is affected by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SUPERVISOR: Hmm. Now, popular music has quite different expectations. Did you read </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mike Frost's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">article about the dress of women performers in popular music?
+JOANNA: No.
+SUPERVISOR: He points out that a lot of female singers and musicians in popular music tend to dress down in performances, and wear less feminine clothes, like jeans instead of skirts, and he suggests this is because </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>otherwise they'd just be discounted as trivial.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be discounted = not seriously</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A. their wish to be taken seriously.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+B. their tendency to copy each other.
+C. their reaction to the masculine nature of the music.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29 What did Joanna's subjects say about the audience at a performance?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A. The musicians' choice of clothing is linked to respect for the audience.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+B. The clothing should not distract the audience from the music.
+C. The audience should make the effort to dress appropriately.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> They believed the audience had certain expectations and it was up to them as performers to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> fulfil these expectations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, to show a kind of esteem</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esteem 尊重 = respect (fulfill these expectations)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 According to the speakers, musicians could learn from sports scientists about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. the importance of clothing for physical freedom.
+B. the part played by clothing in improving performance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C. the way clothing may protect against physical injury.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JOANNA: And I also got interested in what sports scientists are doing too, with regard to clothing.
+SUPERVISOR: Musicians are quite vulnerable physically, aren't they, because the movements they carry out are very intensive and repetitive, so </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I'd imagine some features of sports clothing could safeguard the players from the Potentially dangerous effects of this sort of thing.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+JOANNA: Yes, but musicians don't really consider it. They avoid clothing that obviously restricts their movements, but that's as far as they go.
+SUPERVISOR: Anyway, coming back to your own research, </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，后面说的是: as far as they do 是指他们本来就可以做的。 所以这里还是应该选C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -22021,6 +23085,12 @@
       <color theme="1"/>
       <name val="等线 (正文)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF606060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -22074,7 +23144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -22194,6 +23264,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -23113,6 +24195,307 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2403440</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>10506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1147096</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>878826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://ieltscat-oss.xdf.cn/1004/1557908566120344.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3C71592-B7A1-2144-82C1-41E4A0CBC19C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13068709" y="54757065"/>
+          <a:ext cx="4287957" cy="2821116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>310263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6146" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACQAAAAYCAYAAACSuF9OAAAC8ElEQVRIS72WS0iUURSAvzOjZkWGgVAQFOGmyJULsxkfWPwzGkVk0speuyIyogiih62C2vQgopUWtMmid84/lI05o7hwZbSyXeQiKsI0H82c+KfMaZw7MybO3Z7Xd88595wr5PhoU5Ob4ZGzoAeBn8A9vhSdk3cdkw6K5JJHnXgeXzuw95+4otckHGzJPZDXuorK0RRJ+C4Re1lOgdTrb0X1fOqKyA8igaUCmpOSqdfXgnLF2B5Cm4Rtp6cWvofUY+0DaUsTq5/xqE8GXn5bcCCtsnaich/FbcjOW1yuOunp/DQtn1Uy5yU4tZzv69PNVh0inUCBwdd78l21Eur8kCj/C6Tl25dQOHkD2AWSj2g7eRPHJRQanyuceq0KVLqAJQbbj8SokT57KFk+A+TxXQeOJCk8IX+iUUIhZ4BldbSyoQxXtBsoNhh8Ieaulb4Xg6nkCUD+MdDFs5XkLpFAczZl1EpfKS7eAKtSwgijoFskHOw33S4xQ5+BFQZHNyVsH06XIq2tX82UdoOuM+hNolovvUGnlGkmwB+RevyXQU+YVfWiRIKnU8m1qr6EWMwJtNFwoSgxGqXXfpyp7jMZ2tBUQPFIJ2id0Ug5Jb32pUS5lm9dTqHbBioMdoqwX8L2nUwwjvyfZ6+WtZRReZXWOXJIIoFbjrFWNi3GNfIs7SVEWiQcuJYNzCygeBDvtmKY6kalzJh+pJm88Q6mFj0AdpgbQlslHLyQLUxKoDhUbcNKpqI9QKmxQUX7UKlJU96r0msfmwuMESgOtcm/ljztQVk9V6cgt4kEDmQzKpJ9p932Wr11PVG3M+RKsoYSHrGqaLd0dESztklQzPj9UK9VjsYbfXnmANLF12X109/RzPqzNTICxcu32ar+syhNu8lR62e8oE4Gno79D8i0TVZAcSiPvwH0YcrtLToI+TUSfv51PjBpmzqVY/VYexC5m/S/GcJFtfTYw/OFmTPQ7zllbQc5g7IGkdfkycnkP818wH4BXiT0GeG8RooAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855B37BE-4EBD-8C4E-94E2-FD094DD60850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13131800" y="54737000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>310263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6147" name="AutoShape 3" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACQAAAAYCAYAAACSuF9OAAACeElEQVRIS73WS4hNcRzA8c9xUUMSpShFUlKsLOyMxkIUCbHy3JGQyOve67h3QpQ8kqwMZeORR0oWCAvNmo1iJxZCyivmdHQOY173nLl3Jve/PL/X9/we/98/0OxzVcFLJWxGF66KlIV+JihBU3ligXYdWN8nbuyMsh3NB6o4LbC9RhK+KBnXXKCqEIcyKvJd0ViBuDklq6blOJXZHoEORZuak6F2G8Qu5vRrp1EW2+fz/weqWoHrKGRk54WCNge875YPLFkyCYF42NNX1YZ7GJ3h67XIQqE3veU9QKExRjonthKj0CGyS+hHw3AV8wUeYkyG7VuRVqFX/eU9QBVnBbb1U7gjskqYXmD1nYq5Ao8xIcPgo9hCZc9ryXuAqr6hpYbSFUXr6ipjaKaCJ5iSAfNVbJGyzqy/6w30ARMzFM8r2ZqbotBUIzwWmJGhl6yGJUppKXNugG5RxQmB3Tm6R5UcqCk/YpIoDTQnwz4SWKXo9mB1793UoxXSqUimo/YJ7FV0vI/wmPF+uY/5GVax2EZllweDSeR9x/6EsX54kOucLUoupM5PavHV3dyfiO1QdqYemIFAyZejJuhKp2RuTvrX6XJNwQ0szwkWKjlcL0xtoORraLIRngrMzGnQZ2jNCXZayc5GYLKB/kBNV/AUUxt1ikvpshzCjZ+/7atmk5ZvUgNQt8yy2hpRAzb/VAd/flTME6SNPr6OAA9FlnQ/R+vQH6AyOFBi0m6BOL0SsnZTotUp0iZMb/whn/qAEvdVS3EzY3s/N1Kr/T4NmeSvYf1AfzK1VuxKn/dN7JWCBQ56N1yY/CnL8t5umVgR0/BIZE//N81wwH4DaGCWGbrdmacAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681FBC52-D05D-8F45-974B-901F2D456D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18478500" y="54737000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>310262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6148" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACQAAAAYCAYAAACSuF9OAAACeElEQVRIS73WS4hNcRzA8c9xUUMSpShFUlKsLOyMxkIUCbHy3JGQyOve67h3QpQ8kqwMZeORR0oWCAvNmo1iJxZCyivmdHQOY173nLl3Jve/PL/X9/we/98/0OxzVcFLJWxGF66KlIV+JihBU3ligXYdWN8nbuyMsh3NB6o4LbC9RhK+KBnXXKCqEIcyKvJd0ViBuDklq6blOJXZHoEORZuak6F2G8Qu5vRrp1EW2+fz/weqWoHrKGRk54WCNge875YPLFkyCYF42NNX1YZ7GJ3h67XIQqE3veU9QKExRjonthKj0CGyS+hHw3AV8wUeYkyG7VuRVqFX/eU9QBVnBbb1U7gjskqYXmD1nYq5Ao8xIcPgo9hCZc9ryXuAqr6hpYbSFUXr6ipjaKaCJ5iSAfNVbJGyzqy/6w30ARMzFM8r2ZqbotBUIzwWmJGhl6yGJUppKXNugG5RxQmB3Tm6R5UcqCk/YpIoDTQnwz4SWKXo9mB1793UoxXSqUimo/YJ7FV0vI/wmPF+uY/5GVax2EZllweDSeR9x/6EsX54kOucLUoupM5PavHV3dyfiO1QdqYemIFAyZejJuhKp2RuTvrX6XJNwQ0szwkWKjlcL0xtoORraLIRngrMzGnQZ2jNCXZayc5GYLKB/kBNV/AUUxt1ikvpshzCjZ+/7atmk5ZvUgNQt8yy2hpRAzb/VAd/flTME6SNPr6OAA9FlnQ/R+vQH6AyOFBi0m6BOL0SsnZTotUp0iZMb/whn/qAEvdVS3EzY3s/N1Kr/T4NmeSvYf1AfzK1VuxKn/dN7JWCBQ56N1yY/CnL8t5umVgR0/BIZE//N81wwH4DaGCWGbrdmacAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCB56E5-4ED9-BD4E-9168-D6BE2DC4A13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20129500" y="54991000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>310262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6149" name="AutoShape 5" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACQAAAAYCAYAAACSuF9OAAACeElEQVRIS73WS4hNcRzA8c9xUUMSpShFUlKsLOyMxkIUCbHy3JGQyOve67h3QpQ8kqwMZeORR0oWCAvNmo1iJxZCyivmdHQOY173nLl3Jve/PL/X9/we/98/0OxzVcFLJWxGF66KlIV+JihBU3ligXYdWN8nbuyMsh3NB6o4LbC9RhK+KBnXXKCqEIcyKvJd0ViBuDklq6blOJXZHoEORZuak6F2G8Qu5vRrp1EW2+fz/weqWoHrKGRk54WCNge875YPLFkyCYF42NNX1YZ7GJ3h67XIQqE3veU9QKExRjonthKj0CGyS+hHw3AV8wUeYkyG7VuRVqFX/eU9QBVnBbb1U7gjskqYXmD1nYq5Ao8xIcPgo9hCZc9ryXuAqr6hpYbSFUXr6ipjaKaCJ5iSAfNVbJGyzqy/6w30ARMzFM8r2ZqbotBUIzwWmJGhl6yGJUppKXNugG5RxQmB3Tm6R5UcqCk/YpIoDTQnwz4SWKXo9mB1793UoxXSqUimo/YJ7FV0vI/wmPF+uY/5GVax2EZllweDSeR9x/6EsX54kOucLUoupM5PavHV3dyfiO1QdqYemIFAyZejJuhKp2RuTvrX6XJNwQ0szwkWKjlcL0xtoORraLIRngrMzGnQZ2jNCXZayc5GYLKB/kBNV/AUUxt1ikvpshzCjZ+/7atmk5ZvUgNQt8yy2hpRAzb/VAd/flTME6SNPr6OAA9FlnQ/R+vQH6AyOFBi0m6BOL0SsnZTotUp0iZMb/whn/qAEvdVS3EzY3s/N1Kr/T4NmeSvYf1AfzK1VuxKn/dN7JWCBQ56N1yY/CnL8t5umVgR0/BIZE//N81wwH4DaGCWGbrdmacAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0342C81C-AFB5-DA48-BFA0-9770B149E152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10655300" y="55245000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>310262</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6150" name="AutoShape 6" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAACQAAAAYCAYAAACSuF9OAAAC8ElEQVRIS72WS0iUURSAvzOjZkWGgVAQFOGmyJULsxkfWPwzGkVk0speuyIyogiih62C2vQgopUWtMmid84/lI05o7hwZbSyXeQiKsI0H82c+KfMaZw7MybO3Z7Xd88595wr5PhoU5Ob4ZGzoAeBn8A9vhSdk3cdkw6K5JJHnXgeXzuw95+4otckHGzJPZDXuorK0RRJ+C4Re1lOgdTrb0X1fOqKyA8igaUCmpOSqdfXgnLF2B5Cm4Rtp6cWvofUY+0DaUsTq5/xqE8GXn5bcCCtsnaich/FbcjOW1yuOunp/DQtn1Uy5yU4tZzv69PNVh0inUCBwdd78l21Eur8kCj/C6Tl25dQOHkD2AWSj2g7eRPHJRQanyuceq0KVLqAJQbbj8SokT57KFk+A+TxXQeOJCk8IX+iUUIhZ4BldbSyoQxXtBsoNhh8Ieaulb4Xg6nkCUD+MdDFs5XkLpFAczZl1EpfKS7eAKtSwgijoFskHOw33S4xQ5+BFQZHNyVsH06XIq2tX82UdoOuM+hNolovvUGnlGkmwB+RevyXQU+YVfWiRIKnU8m1qr6EWMwJtNFwoSgxGqXXfpyp7jMZ2tBUQPFIJ2id0Ug5Jb32pUS5lm9dTqHbBioMdoqwX8L2nUwwjvyfZ6+WtZRReZXWOXJIIoFbjrFWNi3GNfIs7SVEWiQcuJYNzCygeBDvtmKY6kalzJh+pJm88Q6mFj0AdpgbQlslHLyQLUxKoDhUbcNKpqI9QKmxQUX7UKlJU96r0msfmwuMESgOtcm/ljztQVk9V6cgt4kEDmQzKpJ9p932Wr11PVG3M+RKsoYSHrGqaLd0dESztklQzPj9UK9VjsYbfXnmANLF12X109/RzPqzNTICxcu32ar+syhNu8lR62e8oE4Gno79D8i0TVZAcSiPvwH0YcrtLToI+TUSfv51PjBpmzqVY/VYexC5m/S/GcJFtfTYw/OFmTPQ7zllbQc5g7IGkdfkycnkP818wH4BXiT0GeG8RooAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82307339-76F6-354D-B294-50171A5E418E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16205200" y="55245000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23450,15 +24833,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" ht="68">
       <c r="A3" s="1" t="s">
@@ -23527,15 +24910,15 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:7" ht="102">
       <c r="A8" s="1" t="s">
@@ -23614,15 +24997,15 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="136">
       <c r="A14" s="1" t="s">
@@ -23649,18 +25032,18 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="68">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="45" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -23679,7 +25062,7 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="68">
-      <c r="A18" s="41"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="1" t="s">
         <v>164</v>
       </c>
@@ -23696,7 +25079,7 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="136">
-      <c r="A19" s="41"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="1" t="s">
         <v>167</v>
       </c>
@@ -23713,7 +25096,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="68">
-      <c r="A20" s="41"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="1" t="s">
         <v>172</v>
       </c>
@@ -23730,7 +25113,7 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="51">
-      <c r="A21" s="41"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="1" t="s">
         <v>158</v>
       </c>
@@ -23747,7 +25130,7 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="85">
-      <c r="A22" s="41"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="1" t="s">
         <v>159</v>
       </c>
@@ -23855,12 +25238,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" ht="17">
       <c r="A2" s="1" t="s">
@@ -23877,7 +25260,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
-      <c r="A3" s="41">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -23887,7 +25270,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="17">
-      <c r="A4" s="41"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
@@ -23895,7 +25278,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="41"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
@@ -23903,7 +25286,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="41"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -23911,7 +25294,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="17">
-      <c r="A7" s="41"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
@@ -23919,7 +25302,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="17">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
@@ -23927,7 +25310,7 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="34">
-      <c r="A9" s="41"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -23994,14 +25377,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" ht="34">
       <c r="A4" s="2" t="s">
@@ -24041,67 +25424,67 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="65" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:6" ht="17" customHeight="1">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:6" ht="54" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="45" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1">
-      <c r="A11" s="41"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:6" ht="53" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
     </row>
     <row r="13" spans="1:6" ht="51">
       <c r="A13" s="8" t="s">
@@ -24186,7 +25569,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="58" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -24195,49 +25578,49 @@
       <c r="C19" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="45" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="70">
-      <c r="A20" s="41"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:5" ht="17">
-      <c r="A21" s="41"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:5" ht="51">
-      <c r="A22" s="41"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="41"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:5" ht="68">
-      <c r="A23" s="41"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="41"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:5" ht="85">
       <c r="A24" s="2" t="s">
@@ -24424,14 +25807,14 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="16" customHeight="1">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
     </row>
     <row r="41" spans="1:6" ht="85">
       <c r="A41" s="1" t="s">
@@ -24537,14 +25920,14 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" customHeight="1">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
     </row>
     <row r="51" spans="1:6" ht="51">
       <c r="A51" s="1" t="s">
@@ -24763,14 +26146,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="51">
       <c r="A2" s="1" t="s">
@@ -24922,14 +26305,14 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="1:6" ht="68">
       <c r="A14" s="1" t="s">
@@ -25141,14 +26524,14 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
     </row>
     <row r="31" spans="1:6" ht="51">
       <c r="A31" s="1" t="s">
@@ -25244,7 +26627,7 @@
       <c r="C37" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="47" t="s">
         <v>454</v>
       </c>
     </row>
@@ -25258,7 +26641,7 @@
       <c r="C38" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D38" s="44"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="1:4" ht="51">
       <c r="A39" s="1" t="s">
@@ -25270,7 +26653,7 @@
       <c r="C39" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:4" ht="102">
       <c r="A40" s="1" t="s">
@@ -25282,7 +26665,7 @@
       <c r="C40" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="1:4" ht="85">
       <c r="A41" s="1" t="s">
@@ -25294,7 +26677,7 @@
       <c r="C41" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4" ht="113" customHeight="1">
       <c r="A42" s="1" t="s">
@@ -25306,7 +26689,7 @@
       <c r="C42" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43" spans="1:4" ht="153">
       <c r="A43" s="1" t="s">
@@ -25427,7 +26810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97061126-B3C2-8648-A26F-0D8FB5091FC0}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -25442,14 +26825,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="34">
       <c r="A2" s="1" t="s">
@@ -25648,14 +27031,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6" ht="34">
       <c r="A18" s="1" t="s">
@@ -25699,7 +27082,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="102">
+    <row r="21" spans="1:6" ht="85">
       <c r="A21" s="1" t="s">
         <v>1012</v>
       </c>
@@ -25785,14 +27168,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
     </row>
     <row r="32" spans="1:6" ht="68">
       <c r="A32" s="1" t="s">
@@ -25842,7 +27225,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="136">
+    <row r="35" spans="1:6" ht="119">
       <c r="A35" s="1" t="s">
         <v>1049</v>
       </c>
@@ -25975,14 +27358,14 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="16" customHeight="1">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="44" t="s">
         <v>467</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -26015,14 +27398,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="34">
       <c r="A2" s="1" t="s">
@@ -26282,14 +27665,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="153">
       <c r="A2" s="1" t="s">
@@ -26551,14 +27934,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="44" t="s">
         <v>756</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6" ht="51">
       <c r="A24" s="1" t="s">
@@ -26801,14 +28184,14 @@
       </c>
     </row>
     <row r="43" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="44" t="s">
         <v>755</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="1:6" ht="68">
       <c r="A44" s="1" t="s">
@@ -26973,14 +28356,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="44" t="s">
         <v>754</v>
       </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
     </row>
     <row r="58" spans="1:6" ht="51">
       <c r="A58" s="1" t="s">
@@ -27067,7 +28450,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="34">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="45" t="s">
         <v>782</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -27076,31 +28459,31 @@
       <c r="D64"/>
     </row>
     <row r="65" spans="1:4" ht="17">
-      <c r="A65" s="41"/>
+      <c r="A65" s="45"/>
       <c r="C65" s="1" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="51">
-      <c r="A66" s="41"/>
+      <c r="A66" s="45"/>
       <c r="C66" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="51">
-      <c r="A67" s="41"/>
+      <c r="A67" s="45"/>
       <c r="C67" s="1" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="34">
-      <c r="A68" s="41"/>
+      <c r="A68" s="45"/>
       <c r="C68" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="51">
-      <c r="A69" s="41"/>
+      <c r="A69" s="45"/>
       <c r="C69" s="1" t="s">
         <v>787</v>
       </c>
@@ -27204,10 +28587,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451F14E0-EED4-5640-855B-B99EEA3C4275}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="93" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="93" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27221,14 +28604,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>811</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="85">
       <c r="A2" s="26" t="s">
@@ -27523,14 +28906,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="49" t="s">
         <v>875</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:6" ht="85">
       <c r="A22" s="1" t="s">
@@ -27813,14 +29196,14 @@
       <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:10" ht="16" customHeight="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="46" t="s">
         <v>952</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="31"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
@@ -27882,7 +29265,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="170">
+    <row r="49" spans="1:10" ht="170">
       <c r="A49" s="1" t="s">
         <v>969</v>
       </c>
@@ -27896,7 +29279,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="136">
+    <row r="50" spans="1:10" ht="136">
       <c r="A50" s="1" t="s">
         <v>973</v>
       </c>
@@ -27910,7 +29293,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="119">
+    <row r="51" spans="1:10" ht="119">
       <c r="A51" s="1" t="s">
         <v>977</v>
       </c>
@@ -27921,7 +29304,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="221">
+    <row r="52" spans="1:10" ht="221">
       <c r="A52" s="1" t="s">
         <v>980</v>
       </c>
@@ -27935,7 +29318,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="51">
+    <row r="53" spans="1:10" ht="51">
       <c r="A53" s="1" t="s">
         <v>984</v>
       </c>
@@ -27949,7 +29332,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="34">
+    <row r="54" spans="1:10" ht="34">
       <c r="A54" s="1" t="s">
         <v>986</v>
       </c>
@@ -27963,7 +29346,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="34">
+    <row r="55" spans="1:10" ht="34">
       <c r="A55" s="1" t="s">
         <v>987</v>
       </c>
@@ -27977,7 +29360,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="51">
+    <row r="56" spans="1:10" ht="51">
       <c r="A56" s="1" t="s">
         <v>988</v>
       </c>
@@ -27991,11 +29374,547 @@
         <v>999</v>
       </c>
     </row>
+    <row r="59" spans="1:10" ht="16" customHeight="1">
+      <c r="A59" s="46" t="s">
+        <v>952</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+    </row>
+    <row r="60" spans="1:10" ht="119">
+      <c r="A60" s="39" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="51">
+      <c r="A61" s="39" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="51">
+      <c r="A62" s="39" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E62" s="39"/>
+    </row>
+    <row r="63" spans="1:10" ht="68">
+      <c r="A63" s="39" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+    </row>
+    <row r="64" spans="1:10" ht="51">
+      <c r="A64" s="40" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+    </row>
+    <row r="65" spans="1:9" ht="34">
+      <c r="A65" s="40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+    </row>
+    <row r="66" spans="1:9" ht="34">
+      <c r="A66" s="40" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+    </row>
+    <row r="67" spans="1:9" ht="34">
+      <c r="A67" s="42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D67" s="40"/>
+    </row>
+    <row r="68" spans="1:9" ht="153">
+      <c r="A68" s="41" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E68" s="39"/>
+    </row>
+    <row r="69" spans="1:9" ht="187">
+      <c r="A69" s="41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E69" s="39"/>
+    </row>
+    <row r="70" spans="1:9" ht="136">
+      <c r="A70" s="41" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E70" s="39"/>
+    </row>
+    <row r="71" spans="1:9" ht="102">
+      <c r="A71" s="41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E71" s="39"/>
+    </row>
+    <row r="72" spans="1:9" ht="153">
+      <c r="A72" s="41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E72" s="39"/>
+    </row>
+    <row r="73" spans="1:9" ht="51">
+      <c r="A73" s="39" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D73" s="39" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E73" s="39"/>
+    </row>
+    <row r="74" spans="1:9" ht="34">
+      <c r="A74" s="39" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E74" s="39"/>
+    </row>
+    <row r="75" spans="1:9" ht="17">
+      <c r="A75" s="39" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E75" s="39"/>
+    </row>
+    <row r="76" spans="1:9" ht="34">
+      <c r="A76" s="39" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E76" s="39"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="39"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A59:F59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28014,24 +29933,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="46" t="s">
         <v>875</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
